--- a/notebooks/SNAP29/input/SNAP29_CEDNIK_individuals.xlsx
+++ b/notebooks/SNAP29/input/SNAP29_CEDNIK_individuals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/SNAP29/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3ED9D4-B25A-FC42-A0C0-30E65D012A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB55AE7-417B-DD45-BC84-11D62D22D51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="38160" windowHeight="11560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="164">
   <si>
     <t>title</t>
   </si>
@@ -509,6 +509,9 @@
   </si>
   <si>
     <t>PMID</t>
+  </si>
+  <si>
+    <t>patient</t>
   </si>
 </sst>
 </file>
@@ -900,7 +903,7 @@
   <dimension ref="A1:BZ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1384,6 +1387,9 @@
       <c r="B3" t="s">
         <v>129</v>
       </c>
+      <c r="C3" t="s">
+        <v>163</v>
+      </c>
       <c r="E3" t="s">
         <v>68</v>
       </c>
